--- a/SchedulingData/dynamic14/pso/scheduling1_8.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_8.xlsx
@@ -462,311 +462,311 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.1</v>
+        <v>34.78</v>
       </c>
       <c r="E2" t="n">
-        <v>27.48</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.44</v>
+        <v>60.5</v>
       </c>
       <c r="E3" t="n">
-        <v>26.256</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.16</v>
+        <v>38.2</v>
       </c>
       <c r="E4" t="n">
-        <v>27.264</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>92.14</v>
+        <v>59.44</v>
       </c>
       <c r="E5" t="n">
-        <v>24.576</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92.14</v>
+        <v>59.44</v>
       </c>
       <c r="D6" t="n">
-        <v>141.84</v>
+        <v>127.82</v>
       </c>
       <c r="E6" t="n">
-        <v>20.736</v>
+        <v>23.008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>141.84</v>
+        <v>60.5</v>
       </c>
       <c r="D7" t="n">
-        <v>183.16</v>
+        <v>121</v>
       </c>
       <c r="E7" t="n">
-        <v>17.744</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>26.524</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.44</v>
+        <v>121</v>
       </c>
       <c r="D9" t="n">
-        <v>88.34</v>
+        <v>174.56</v>
       </c>
       <c r="E9" t="n">
-        <v>23.496</v>
+        <v>18.984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>88.34</v>
+        <v>38.2</v>
       </c>
       <c r="D10" t="n">
-        <v>151.54</v>
+        <v>79.7</v>
       </c>
       <c r="E10" t="n">
-        <v>19.776</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>86.72</v>
+        <v>118.54</v>
       </c>
       <c r="E11" t="n">
-        <v>25.968</v>
+        <v>22.936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41.76</v>
+        <v>118.54</v>
       </c>
       <c r="D12" t="n">
-        <v>101.66</v>
+        <v>177.12</v>
       </c>
       <c r="E12" t="n">
-        <v>21.664</v>
+        <v>20.208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64.16</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>124.96</v>
+        <v>39.5</v>
       </c>
       <c r="E13" t="n">
-        <v>23.304</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>151.54</v>
+        <v>79.7</v>
       </c>
       <c r="D14" t="n">
-        <v>223.82</v>
+        <v>147.7</v>
       </c>
       <c r="E14" t="n">
-        <v>15.668</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>124.96</v>
+        <v>39.5</v>
       </c>
       <c r="D15" t="n">
-        <v>162.22</v>
+        <v>100.56</v>
       </c>
       <c r="E15" t="n">
-        <v>20.708</v>
+        <v>23.764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>86.72</v>
+        <v>34.78</v>
       </c>
       <c r="D16" t="n">
-        <v>158.52</v>
+        <v>92.06</v>
       </c>
       <c r="E16" t="n">
-        <v>21.888</v>
+        <v>23.604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>158.52</v>
+        <v>147.7</v>
       </c>
       <c r="D17" t="n">
-        <v>222</v>
+        <v>203.6</v>
       </c>
       <c r="E17" t="n">
-        <v>19.16</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,165 +774,165 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>223.82</v>
+        <v>92.06</v>
       </c>
       <c r="D18" t="n">
-        <v>279</v>
+        <v>147.24</v>
       </c>
       <c r="E18" t="n">
-        <v>12.28</v>
+        <v>20.216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>162.22</v>
+        <v>203.6</v>
       </c>
       <c r="D19" t="n">
-        <v>224.82</v>
+        <v>269.3</v>
       </c>
       <c r="E19" t="n">
-        <v>17.068</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>101.66</v>
+        <v>177.12</v>
       </c>
       <c r="D20" t="n">
-        <v>179.9</v>
+        <v>238.12</v>
       </c>
       <c r="E20" t="n">
-        <v>18.44</v>
+        <v>15.728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>224.82</v>
+        <v>238.12</v>
       </c>
       <c r="D21" t="n">
-        <v>278.08</v>
+        <v>276.76</v>
       </c>
       <c r="E21" t="n">
-        <v>13.852</v>
+        <v>12.504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>179.9</v>
+        <v>269.3</v>
       </c>
       <c r="D22" t="n">
-        <v>242.9</v>
+        <v>339.22</v>
       </c>
       <c r="E22" t="n">
-        <v>13.76</v>
+        <v>9.848000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>242.9</v>
+        <v>100.56</v>
       </c>
       <c r="D23" t="n">
-        <v>290.14</v>
+        <v>171.78</v>
       </c>
       <c r="E23" t="n">
-        <v>10.176</v>
+        <v>19.732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>339.22</v>
       </c>
       <c r="D24" t="n">
-        <v>68.40000000000001</v>
+        <v>397.02</v>
       </c>
       <c r="E24" t="n">
-        <v>25.84</v>
+        <v>7.648</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>290.14</v>
+        <v>127.82</v>
       </c>
       <c r="D25" t="n">
-        <v>343.82</v>
+        <v>175.02</v>
       </c>
       <c r="E25" t="n">
-        <v>6.928</v>
+        <v>19.928</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>343.82</v>
+        <v>147.24</v>
       </c>
       <c r="D26" t="n">
-        <v>387.68</v>
+        <v>199.44</v>
       </c>
       <c r="E26" t="n">
-        <v>3.672</v>
+        <v>16.136</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>278.08</v>
+        <v>199.44</v>
       </c>
       <c r="D27" t="n">
-        <v>339.6</v>
+        <v>257.74</v>
       </c>
       <c r="E27" t="n">
-        <v>9.82</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="28">
@@ -960,340 +960,340 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>279</v>
+        <v>171.78</v>
       </c>
       <c r="D28" t="n">
-        <v>332.74</v>
+        <v>220.24</v>
       </c>
       <c r="E28" t="n">
-        <v>8.536</v>
+        <v>16.516</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>339.6</v>
+        <v>174.56</v>
       </c>
       <c r="D29" t="n">
-        <v>406.5</v>
+        <v>231.56</v>
       </c>
       <c r="E29" t="n">
-        <v>6.74</v>
+        <v>14.904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>222</v>
+        <v>257.74</v>
       </c>
       <c r="D30" t="n">
-        <v>270.44</v>
+        <v>301.5</v>
       </c>
       <c r="E30" t="n">
-        <v>15.936</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>387.68</v>
+        <v>301.5</v>
       </c>
       <c r="D31" t="n">
-        <v>429.18</v>
+        <v>340.14</v>
       </c>
       <c r="E31" t="n">
-        <v>1.632</v>
+        <v>6.456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>429.18</v>
+        <v>340.14</v>
       </c>
       <c r="D32" t="n">
-        <v>537.22</v>
+        <v>382.3</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>68.40000000000001</v>
+        <v>231.56</v>
       </c>
       <c r="D33" t="n">
-        <v>129.6</v>
+        <v>305.76</v>
       </c>
       <c r="E33" t="n">
-        <v>21.36</v>
+        <v>11.064</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>183.16</v>
+        <v>305.76</v>
       </c>
       <c r="D34" t="n">
-        <v>252.72</v>
+        <v>360.66</v>
       </c>
       <c r="E34" t="n">
-        <v>15.368</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>270.44</v>
+        <v>276.76</v>
       </c>
       <c r="D35" t="n">
-        <v>340.54</v>
+        <v>347.68</v>
       </c>
       <c r="E35" t="n">
-        <v>12.556</v>
+        <v>9.512</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>252.72</v>
+        <v>220.24</v>
       </c>
       <c r="D36" t="n">
-        <v>348.94</v>
+        <v>279.56</v>
       </c>
       <c r="E36" t="n">
-        <v>11.336</v>
+        <v>12.204</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>332.74</v>
+        <v>382.3</v>
       </c>
       <c r="D37" t="n">
-        <v>388.06</v>
+        <v>432.16</v>
       </c>
       <c r="E37" t="n">
-        <v>5.624</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>129.6</v>
+        <v>432.16</v>
       </c>
       <c r="D38" t="n">
-        <v>190.86</v>
+        <v>501.19</v>
       </c>
       <c r="E38" t="n">
-        <v>18.864</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>190.86</v>
+        <v>279.56</v>
       </c>
       <c r="D39" t="n">
-        <v>257.76</v>
+        <v>331.28</v>
       </c>
       <c r="E39" t="n">
-        <v>14.784</v>
+        <v>8.172000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>406.5</v>
+        <v>331.28</v>
       </c>
       <c r="D40" t="n">
-        <v>460.38</v>
+        <v>395.04</v>
       </c>
       <c r="E40" t="n">
-        <v>4.452</v>
+        <v>4.916</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>460.38</v>
+        <v>347.68</v>
       </c>
       <c r="D41" t="n">
-        <v>514.88</v>
+        <v>403.74</v>
       </c>
       <c r="E41" t="n">
-        <v>0.132</v>
+        <v>7.016</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>514.88</v>
+        <v>360.66</v>
       </c>
       <c r="D42" t="n">
-        <v>591.62</v>
+        <v>413.26</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>4.044</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>340.54</v>
+        <v>501.19</v>
       </c>
       <c r="D43" t="n">
-        <v>421.14</v>
+        <v>559.3099999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>9.596</v>
+        <v>27.348</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>348.94</v>
+        <v>413.26</v>
       </c>
       <c r="D44" t="n">
-        <v>407.7</v>
+        <v>478.04</v>
       </c>
       <c r="E44" t="n">
-        <v>8.6</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>407.7</v>
+        <v>478.04</v>
       </c>
       <c r="D45" t="n">
-        <v>470.66</v>
+        <v>544.65</v>
       </c>
       <c r="E45" t="n">
-        <v>4.904</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1302,169 +1302,169 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>257.76</v>
+        <v>403.74</v>
       </c>
       <c r="D46" t="n">
-        <v>330.46</v>
+        <v>452.58</v>
       </c>
       <c r="E46" t="n">
-        <v>12.584</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>470.66</v>
+        <v>175.02</v>
       </c>
       <c r="D47" t="n">
-        <v>526.8200000000001</v>
+        <v>241.22</v>
       </c>
       <c r="E47" t="n">
-        <v>1.888</v>
+        <v>15.428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>526.8200000000001</v>
+        <v>395.04</v>
       </c>
       <c r="D48" t="n">
-        <v>624.54</v>
+        <v>494.24</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>330.46</v>
+        <v>494.24</v>
       </c>
       <c r="D49" t="n">
-        <v>417.36</v>
+        <v>570.05</v>
       </c>
       <c r="E49" t="n">
-        <v>9.464</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>388.06</v>
+        <v>397.02</v>
       </c>
       <c r="D50" t="n">
-        <v>472.08</v>
+        <v>448.38</v>
       </c>
       <c r="E50" t="n">
-        <v>1.312</v>
+        <v>4.632</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>472.08</v>
+        <v>241.22</v>
       </c>
       <c r="D51" t="n">
-        <v>565.86</v>
+        <v>337.44</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>11.396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>591.62</v>
+        <v>337.44</v>
       </c>
       <c r="D52" t="n">
-        <v>632.8200000000001</v>
+        <v>388.74</v>
       </c>
       <c r="E52" t="n">
-        <v>26.58</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>537.22</v>
+        <v>448.38</v>
       </c>
       <c r="D53" t="n">
-        <v>587.7</v>
+        <v>511.34</v>
       </c>
       <c r="E53" t="n">
-        <v>26.152</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>565.86</v>
+        <v>511.34</v>
       </c>
       <c r="D54" t="n">
-        <v>628.98</v>
+        <v>591.37</v>
       </c>
       <c r="E54" t="n">
-        <v>27.348</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>421.14</v>
+        <v>388.74</v>
       </c>
       <c r="D55" t="n">
-        <v>472.54</v>
+        <v>460.58</v>
       </c>
       <c r="E55" t="n">
-        <v>5.096</v>
+        <v>5.772</v>
       </c>
     </row>
   </sheetData>
